--- a/docs/231116_종합관통PJT_개발일지_8팀_이항우_유세진.xlsx
+++ b/docs/231116_종합관통PJT_개발일지_8팀_이항우_유세진.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSAFY\이항우\최종관통문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SSAFY\workspace\Projects\WhereIsMyHome_FINAL_PROJECT\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="63">
   <si>
     <t>개발 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,15 +215,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. 회원 관련 기능 보강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 게시판 관련 기능 보강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 추가된 DB 테이블 백단에 구현</t>
+    <t>2. [Vue.js] 로그인 기능 보강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. [Vue.js, SpringBoot] 게시판 이미지 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계 어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면설계 툴을 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 기능 구현 어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰에서의 세션 처리등 로그인에 필요한 기술을 공부한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 이미지 업로드 어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드와 관련된 공부를 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존에 되었던 alert창이 Vue에서 뜨지않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 작업물을 기반으로 코드를 수정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 두번 클릭해야 접속되는 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 관련된 Vue 코드를 같이 확인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 화면 설계 후 기능단위 또는 구역별 담당 분리 후 가능하다면 개발일정 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 화면설계 - 이항우, 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. [Vue.js] 로그인 기능 보강 - 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. [Vue.js, SpringBoot] 게시판 이미지 업로드 - 이항우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 담당 분리, 개발일정 설정 - 이항우, 유세진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -408,13 +464,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,6 +528,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,8 +988,8 @@
   </sheetPr>
   <dimension ref="B1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1278,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C30"/>
+  <dimension ref="B1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1362,7 +1434,7 @@
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
@@ -1377,19 +1449,27 @@
       <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="12"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
@@ -1403,48 +1483,76 @@
       <c r="B20" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="12"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="12"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="12"/>
+      <c r="C27" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="14"/>
+      <c r="C29" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B29"/>
     <mergeCell ref="B8:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/231116_종합관통PJT_개발일지_8팀_이항우_유세진.xlsx
+++ b/docs/231116_종합관통PJT_개발일지_8팀_이항우_유세진.xlsx
@@ -9,19 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15150" windowHeight="10545" tabRatio="746" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15150" windowHeight="10545" tabRatio="746"/>
   </bookViews>
   <sheets>
-    <sheet name="예시 x월 x일" sheetId="1" r:id="rId1"/>
-    <sheet name="11월 16일(목)" sheetId="3" r:id="rId2"/>
-    <sheet name="11월 17일(금)" sheetId="11" r:id="rId3"/>
-    <sheet name="11월 18일(토)" sheetId="20" r:id="rId4"/>
-    <sheet name="11월 19일(일)" sheetId="21" r:id="rId5"/>
-    <sheet name="11월 20일(월)" sheetId="22" r:id="rId6"/>
-    <sheet name="11월 21일(화)" sheetId="23" r:id="rId7"/>
-    <sheet name="11월 22일(수)" sheetId="24" r:id="rId8"/>
-    <sheet name="11월 23일(목)" sheetId="25" r:id="rId9"/>
-    <sheet name="11월 24일(금)" sheetId="26" r:id="rId10"/>
+    <sheet name="11월 16일(목)" sheetId="3" r:id="rId1"/>
+    <sheet name="11월 17일(금)" sheetId="11" r:id="rId2"/>
+    <sheet name="11월 18일(토)" sheetId="20" r:id="rId3"/>
+    <sheet name="11월 19일(일)" sheetId="21" r:id="rId4"/>
+    <sheet name="11월 20일(월)" sheetId="22" r:id="rId5"/>
+    <sheet name="11월 21일(화)" sheetId="23" r:id="rId6"/>
+    <sheet name="11월 22일(수)" sheetId="24" r:id="rId7"/>
+    <sheet name="11월 23일(목)" sheetId="25" r:id="rId8"/>
+    <sheet name="11월 24일(금)" sheetId="26" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="47">
   <si>
     <t>개발 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,158 +70,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.16 (목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.17 (금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.18 (토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.19 (일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.20 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.21 (화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.22 (수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.23 (목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.24 (금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이항우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이항우, 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지도에서 마커를 찍는 속도가 느림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쓸모없는 데이터를 버리고 위도와 경도만 가져옴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답글 작성 시 기존 DB에 저장하기 어려움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새로운 테이블을 생성하여 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동, 강감찬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js/springboot] 로그인 기능 구현 - 홍길동</t>
-  </si>
-  <si>
-    <t>[Vue.js/springboot] 답글 및 공지사항 구현 - 강감찬</t>
-  </si>
-  <si>
-    <t>[MySQL] DB정리 - 강감찬</t>
-  </si>
-  <si>
-    <t>[일정] 일정 협의 - 홍길동, 강감찬</t>
-  </si>
-  <si>
-    <t>구현 완료 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계획</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[Vue.js] axios, vuex 모듈화 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[Vue.js/springboot] 로그인 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js/springboot] 답글 및 공지사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[MySQL] DB정리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.16 (목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js] axios, pinia 모듈화 - 홍길동, 강감찬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js/springboot] 환경설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js/springboot] 환경설정 구현 - 홍길동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.17 (금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.18 (토)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.19 (일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.20 (월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.21 (화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.22 (수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.23 (목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.24 (금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이항우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이항우, 유세진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 화면 설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. [Vue.js] 로그인 기능 보강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. [Vue.js, SpringBoot] 게시판 이미지 업로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화면 설계 어려움</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,27 +174,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마이페이지 관련된 Vue 코드를 같이 확인한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 화면 설계 후 기능단위 또는 구역별 담당 분리 후 가능하다면 개발일정 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 화면설계 - 이항우, 유세진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. [Vue.js] 로그인 기능 보강 - 유세진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. [Vue.js, SpringBoot] 게시판 이미지 업로드 - 이항우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 담당 분리, 개발일정 설정 - 이항우, 유세진</t>
+    <t>ERD 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 로그인 기능 보강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js, SpringBoot] 게시판 이미지 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면설계 - 이항우, 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 로그인 기능 보강 - 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js, SpringBoot] 게시판 이미지 업로드 - 이항우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD 작성 - 이항우, 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[일정]화면 설계 후 기능단위 또는 구역별 담당 분리 후 가능하다면 개발일정 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[일정]담당 분리, 개발일정 설정 - 이항우, 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 관련된 Vue 코드를 같이 확인한다. (해결: href 쓰지 않기)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,21 +243,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -477,13 +410,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,9 +441,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -514,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -529,7 +468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,15 +493,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>36004</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203499</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -585,96 +524,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="696686" y="6482444"/>
-          <a:ext cx="6462032" cy="4052831"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>264680</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="695325" y="9020176"/>
-          <a:ext cx="6465455" cy="3733800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>423818</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7591426" y="5057775"/>
-          <a:ext cx="6586492" cy="5734050"/>
+          <a:off x="704850" y="7162800"/>
+          <a:ext cx="8452149" cy="7772400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -983,13 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="B1:C29"/>
+  <dimension ref="B1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1001,184 +849,207 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>16</v>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
+      <c r="B8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
-      <c r="C21" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="B24" s="11"/>
       <c r="C24" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="12"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14"/>
-      <c r="C27" s="4"/>
+      <c r="C26" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="11"/>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>22</v>
+      <c r="B29" s="11"/>
+      <c r="C29" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="11"/>
+      <c r="C30" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="13"/>
+      <c r="C31" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B15:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1187,12 +1058,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1204,130 +1075,130 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>23</v>
+      <c r="B8" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -1341,219 +1212,6 @@
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B24:B27"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="69.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="C9" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-      <c r="C26" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="14"/>
-      <c r="C29" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B8:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1578,130 +1236,130 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>23</v>
+      <c r="B8" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -1727,7 +1385,7 @@
   <dimension ref="B1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1739,130 +1397,130 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>23</v>
+      <c r="B8" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -1888,7 +1546,7 @@
   <dimension ref="B1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1900,130 +1558,130 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>23</v>
+      <c r="B8" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -2061,130 +1719,130 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>23</v>
+      <c r="B8" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -2222,130 +1880,130 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>23</v>
+      <c r="B8" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -2383,130 +2041,130 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>23</v>
+      <c r="B8" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -2532,7 +2190,7 @@
   <dimension ref="B1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2544,130 +2202,130 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
-        <v>23</v>
+      <c r="B8" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">

--- a/docs/231116_종합관통PJT_개발일지_8팀_이항우_유세진.xlsx
+++ b/docs/231116_종합관통PJT_개발일지_8팀_이항우_유세진.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15150" windowHeight="10545" tabRatio="746"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15150" windowHeight="10545" tabRatio="746" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="11월 16일(목)" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="59">
   <si>
     <t>개발 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,139 +86,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2023.11.18 (토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.19 (일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.20 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.21 (화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.22 (수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.23 (목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.24 (금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이항우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이항우, 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계 어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면설계 툴을 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 기능 구현 어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰에서의 세션 처리등 로그인에 필요한 기술을 공부한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 이미지 업로드 어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드와 관련된 공부를 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존에 되었던 alert창이 Vue에서 뜨지않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 작업물을 기반으로 코드를 수정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 두번 클릭해야 접속되는 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 로그인 기능 보강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js, SpringBoot] 게시판 이미지 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면설계 - 이항우, 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 로그인 기능 보강 - 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js, SpringBoot] 게시판 이미지 업로드 - 이항우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD 작성 - 이항우, 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[일정]화면 설계 후 기능단위 또는 구역별 담당 분리 후 가능하다면 개발일정 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[일정]담당 분리, 개발일정 설정 - 이항우, 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 관련된 Vue 코드를 같이 확인한다. (해결: href 쓰지 않기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2023.11.17 (금)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023.11.18 (토)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.19 (일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.20 (월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.21 (화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.22 (수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.23 (목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.24 (금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이항우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이항우, 유세진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 설계 어려움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면설계 툴을 사용한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 기능 구현 어려움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뷰에서의 세션 처리등 로그인에 필요한 기술을 공부한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 이미지 업로드 어려움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 업로드와 관련된 공부를 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존에 되었던 alert창이 Vue에서 뜨지않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 작업물을 기반으로 코드를 수정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지 두번 클릭해야 접속되는 문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERD 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js] 로그인 기능 보강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js, SpringBoot] 게시판 이미지 업로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면설계 - 이항우, 유세진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js] 로그인 기능 보강 - 유세진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js, SpringBoot] 게시판 이미지 업로드 - 이항우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERD 작성 - 이항우, 유세진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[일정]화면 설계 후 기능단위 또는 구역별 담당 분리 후 가능하다면 개발일정 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[일정]담당 분리, 개발일정 설정 - 이항우, 유세진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지 관련된 Vue 코드를 같이 확인한다. (해결: href 쓰지 않기)</t>
+    <t>[Vue.js] JWT를 활용한 로그인 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 아이디 중복검사 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js + SpringBoot] 회원가입 - 일반회원/기업회원 + 관리자 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 댓글 수정시 새로고침 없이 화면 전환하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SpringBoot] 매물 등록 관련 backend 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 매물 등록 관련 frontend 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] JWT 로그인 - 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 아이디 중복검사 - 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js + SpringBoot] 일반회원/기업회원 + 관리자 - 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 댓글 수정 보강 - 이항우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SpringBoot] 매물 관련 backend - 이항우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 매물 관련 frontend - 이항우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,6 +504,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -467,9 +518,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -852,7 +900,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -860,7 +908,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -876,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
@@ -884,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -892,156 +940,156 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="12"/>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="12"/>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="12"/>
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="12"/>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="3" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="12"/>
+      <c r="C23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="12"/>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="12"/>
+      <c r="C25" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="13"/>
+      <c r="C26" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="12"/>
+      <c r="C29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="12"/>
+      <c r="C30" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
-      <c r="C24" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
-      <c r="C25" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-      <c r="C26" s="3" t="s">
+    <row r="31" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="14"/>
+      <c r="C31" s="4" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
-      <c r="C28" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
-      <c r="C29" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="11"/>
-      <c r="C30" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="13"/>
-      <c r="C31" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1062,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1078,127 +1126,159 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="13"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -1253,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -1275,91 +1355,91 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="13"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -1414,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -1436,91 +1516,91 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="13"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -1575,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -1597,91 +1677,91 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="13"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -1736,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -1758,91 +1838,91 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="13"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -1897,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -1919,91 +1999,91 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="13"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -2058,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -2080,91 +2160,91 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="13"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -2219,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -2241,91 +2321,91 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="13"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">

--- a/docs/231116_종합관통PJT_개발일지_8팀_이항우_유세진.xlsx
+++ b/docs/231116_종합관통PJT_개발일지_8팀_이항우_유세진.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="61">
   <si>
     <t>개발 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,11 +262,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[SpringBoot] 매물 관련 backend - 이항우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js] 매물 관련 frontend - 이항우</t>
+    <t>댓글 수정에서 댓글등록 컴포넌트와 리스트 컴포넌트간 전환이 어려워 임시방편으로 새로고침 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 수정에서 메서드를 기존에 호출하던 위치에서 부모 위치로 옮기고, emit을 적절히 활용해 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SpringBoot] 파일 업로드(이미지) 관련 backend - 이항우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 파일 업로드(이미지) 관련 frontend - 이항우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -506,6 +514,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -944,7 +958,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -952,39 +966,39 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -992,39 +1006,39 @@
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1032,31 +1046,31 @@
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1064,25 +1078,25 @@
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="14"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="4" t="s">
         <v>32</v>
       </c>
@@ -1111,7 +1125,7 @@
   <dimension ref="B1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1170,7 +1184,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1178,37 +1192,37 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1216,69 +1230,73 @@
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" s="12" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
-      <c r="C19" s="3" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="2:3" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="3"/>
-    </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -1355,91 +1373,91 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -1516,91 +1534,91 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -1677,91 +1695,91 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -1838,91 +1856,91 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -1999,91 +2017,91 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -2160,91 +2178,91 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -2321,91 +2339,91 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="13"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="14"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">

--- a/docs/231116_종합관통PJT_개발일지_8팀_이항우_유세진.xlsx
+++ b/docs/231116_종합관통PJT_개발일지_8팀_이항우_유세진.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15150" windowHeight="10545" tabRatio="746" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15150" windowHeight="10545" tabRatio="746" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="11월 16일(목)" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="95">
   <si>
     <t>개발 날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,15 +86,299 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2023.11.20 (월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.23 (목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.24 (금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이항우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이항우, 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계 어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면설계 툴을 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 기능 구현 어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰에서의 세션 처리등 로그인에 필요한 기술을 공부한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 이미지 업로드 어려움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드와 관련된 공부를 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존에 되었던 alert창이 Vue에서 뜨지않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 작업물을 기반으로 코드를 수정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 두번 클릭해야 접속되는 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 로그인 기능 보강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js, SpringBoot] 게시판 이미지 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면설계 - 이항우, 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 로그인 기능 보강 - 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js, SpringBoot] 게시판 이미지 업로드 - 이항우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD 작성 - 이항우, 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[일정]화면 설계 후 기능단위 또는 구역별 담당 분리 후 가능하다면 개발일정 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[일정]담당 분리, 개발일정 설정 - 이항우, 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 관련된 Vue 코드를 같이 확인한다. (해결: href 쓰지 않기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.11.17 (금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] JWT를 활용한 로그인 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 아이디 중복검사 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js + SpringBoot] 회원가입 - 일반회원/기업회원 + 관리자 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 댓글 수정시 새로고침 없이 화면 전환하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SpringBoot] 매물 등록 관련 backend 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 매물 등록 관련 frontend 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] JWT 로그인 - 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 아이디 중복검사 - 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 댓글 수정 보강 - 이항우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 수정에서 댓글등록 컴포넌트와 리스트 컴포넌트간 전환이 어려워 임시방편으로 새로고침 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 수정에서 메서드를 기존에 호출하던 위치에서 부모 위치로 옮기고, emit을 적절히 활용해 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SpringBoot] 파일 업로드(이미지) 관련 backend - 이항우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 파일 업로드(이미지) 관련 frontend - 이항우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판에서 파일 업로드 시 게시물 DTO와 이미지를 함께 보낼 때 문제 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 DTO는 JSON형태로, 이미지는 바이너리로 전송하며, 이 때 content type은 multipart/form-data가 된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 후 새로고침 하면 nav가 풀리는 문제 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piniaPluginPersistedstate를 사용하고 플러그인 잘못 연결된 것을 고쳐주니 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html 코드와 class 속성을 아이디 중복 검사 결과 div에 출력시키는 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v-bind와 v-html을 사용하여 해결</t>
+  </si>
+  <si>
+    <t>v-bind와 v-html을 사용하여 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 시 일반회원과 기업회원 버튼을 보여주는데 관리자는 어떻게 가입시킬 것인가에 대한 고민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자도 라디오 버튼으로 선택해서 회원가입하게끔 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JWT 로그인의 흐름과 코드에 대한 이해 부족</t>
+  </si>
+  <si>
+    <t>관련 자료 참고하며 흐름 파악 및 배포해주신 코드 분석</t>
+  </si>
+  <si>
     <t>2023.11.18 (토)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[Vue.js/Springboot] JWT 로그인 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js/Springboot] JWT 로그인 구현 - 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JWT 로그인 새로고침 시 nav바 풀리는 문제 발생</t>
+  </si>
+  <si>
+    <t>piniaPluginPersistedstate를 사용하고 잘못연결된 플러그인 수정</t>
+  </si>
+  <si>
+    <t>[Vue.js] 비밀번호 보이기 구현</t>
+  </si>
+  <si>
+    <t>[Vue.js] 폼 미입력 시 값이 전송되지 않게 조건문 추가 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 아이디 중복 검사 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 폼 미입력 시 값이 전송되지 않게 조건문 추가 구현 - 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 아이디 중복 검사 구현 - 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js] 비밀번호 보이기 구현 - 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 중복 검사 구현 시 html 코드와 class 속성을 아이디 중복 검사 결과 div에 출력시키는 어려움</t>
+  </si>
+  <si>
+    <t>[Vue.js] 로그인 유저의 데이터 마이페이지에 불러오기</t>
+  </si>
+  <si>
+    <t>select 태그에서 선택된 option 값 가져오기</t>
+  </si>
+  <si>
+    <t>파라미터로 넘겨줄 객체를 따로 선언하고 userPwd key 추가해서 전달</t>
+  </si>
+  <si>
+    <t>~.options[selector.value.selectedIndex].value 코드로 해결</t>
+  </si>
+  <si>
+    <t>[Vue.js/Springboot] 마이페이지 회원 정보 수정 구현 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js/Springboot] 메인화면 - 시도/구군/동 select option 구현</t>
+  </si>
+  <si>
+    <t>store에 저장된 데이터로 코드 수정하면서 회원 정보 수정 후 로그인 오류 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2023.11.19 (일)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023.11.20 (월)</t>
+    <t>[Vue.js] 로그인 유저의 데이터 마이페이지에 불러오기 - 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js/Springboot] 마이페이지 회원 정보 수정 구현 수정 - 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js/Springboot] 메인화면 - 시도/구군/동 select option 구현 - 유세진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -106,175 +390,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023.11.23 (목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.24 (금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8팀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이항우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이항우, 유세진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 설계 어려움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면설계 툴을 사용한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 기능 구현 어려움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뷰에서의 세션 처리등 로그인에 필요한 기술을 공부한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판 이미지 업로드 어려움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 업로드와 관련된 공부를 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존에 되었던 alert창이 Vue에서 뜨지않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존 작업물을 기반으로 코드를 수정한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지 두번 클릭해야 접속되는 문제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERD 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js] 로그인 기능 보강</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js, SpringBoot] 게시판 이미지 업로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면설계 - 이항우, 유세진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js] 로그인 기능 보강 - 유세진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js, SpringBoot] 게시판 이미지 업로드 - 이항우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERD 작성 - 이항우, 유세진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[일정]화면 설계 후 기능단위 또는 구역별 담당 분리 후 가능하다면 개발일정 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[일정]담당 분리, 개발일정 설정 - 이항우, 유세진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지 관련된 Vue 코드를 같이 확인한다. (해결: href 쓰지 않기)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.11.17 (금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js] JWT를 활용한 로그인 기능 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js] 아이디 중복검사 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js + SpringBoot] 회원가입 - 일반회원/기업회원 + 관리자 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js] 댓글 수정시 새로고침 없이 화면 전환하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[SpringBoot] 매물 등록 관련 backend 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js] 매물 등록 관련 frontend 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js] JWT 로그인 - 유세진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js] 아이디 중복검사 - 유세진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js + SpringBoot] 일반회원/기업회원 + 관리자 - 유세진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js] 댓글 수정 보강 - 이항우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 수정에서 댓글등록 컴포넌트와 리스트 컴포넌트간 전환이 어려워 임시방편으로 새로고침 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 수정에서 메서드를 기존에 호출하던 위치에서 부모 위치로 옮기고, emit을 적절히 활용해 해결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[SpringBoot] 파일 업로드(이미지) 관련 backend - 이항우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Vue.js] 파일 업로드(이미지) 관련 frontend - 이항우</t>
+    <t>[Vue.js/SpringBoot] 일반회원/기업회원 + 관리자 - 유세진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[Vue.js] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Vue.js/SpringBoot] 매물 등록 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +406,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +422,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -307,7 +446,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -475,13 +614,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,9 +669,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -532,6 +683,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -914,7 +1131,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -922,7 +1139,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -938,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
@@ -946,7 +1163,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -954,156 +1171,156 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="13"/>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="13"/>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="14"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="13"/>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="13"/>
+      <c r="C23" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="13"/>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="13"/>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="13"/>
+      <c r="C29" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+      <c r="C30" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
-      <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
-      <c r="C19" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="14"/>
-      <c r="C23" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
-      <c r="C24" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
-      <c r="C26" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="14"/>
-      <c r="C28" s="3" t="s">
+    <row r="31" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="15"/>
+      <c r="C31" s="4" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="14"/>
-      <c r="C29" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="14"/>
-      <c r="C30" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="16"/>
-      <c r="C31" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1122,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C30"/>
+  <dimension ref="B1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1136,171 +1353,207 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
+      <c r="C2" s="37" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
+      <c r="C3" s="18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="22"/>
+      <c r="C9" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="22"/>
+      <c r="C10" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="22"/>
+      <c r="C11" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="3" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="23"/>
+      <c r="C13" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="3" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="3" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="22"/>
+      <c r="C15" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="3" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="22"/>
+      <c r="C16" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="22"/>
+      <c r="C17" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="3" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="22"/>
+      <c r="C18" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="23"/>
+      <c r="C19" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="22"/>
+      <c r="C21" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="22"/>
+      <c r="C22" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="22"/>
+      <c r="C23" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="22"/>
+      <c r="C24" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="B25" s="23"/>
+      <c r="C25" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
-      <c r="C16" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="3" t="s">
+    <row r="27" spans="2:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="B27" s="22"/>
+      <c r="C27" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="22"/>
+      <c r="C28" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="22"/>
+      <c r="C29" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
-      <c r="C19" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" s="12" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="2:3" s="12" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="16"/>
-      <c r="C27" s="4"/>
-    </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="B30" s="22"/>
+      <c r="C30" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="24"/>
+      <c r="C31" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1308,8 +1561,8 @@
   <mergeCells count="4">
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B26:B31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1321,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1333,132 +1586,150 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
+      <c r="C2" s="27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
+      <c r="C4" s="29" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="29" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="29" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="29" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="29" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="29" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="29"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="29"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="29"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="29" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="29"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="29"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="29"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="29"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="29"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="29" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="29"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="29"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="29"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="29" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="29"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="16"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="30"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
@@ -1482,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1494,132 +1765,156 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
+      <c r="C2" s="27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
+      <c r="C4" s="29" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="29" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="29" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="29" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="29" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="29" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="29" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="29"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="29"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="29" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="29" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="29" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="29"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="29"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="2:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="B20" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="36" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="29"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="29"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="29"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="29" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="29"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="16"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="30"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
@@ -1643,8 +1938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1655,132 +1950,160 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
+      <c r="C2" s="27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
+      <c r="C4" s="29" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="29" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="29" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="29" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="29" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="29" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="29" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="29"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="29"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="29" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="29" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="29" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="29"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="29"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="29"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="29" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="29" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="29"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
-      <c r="C23" s="3"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="29"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="29" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="29" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="3"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="16"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="30"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
@@ -1804,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1819,128 +2142,138 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
+      <c r="C2" s="27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
+      <c r="C4" s="29" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="29" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="29" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="29" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="16"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -1980,128 +2313,136 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
+      <c r="C2" s="27" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="29" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
+      <c r="C4" s="29" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="29" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="29" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="29" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="16"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -2156,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -2178,91 +2519,91 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="16"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -2317,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -2339,91 +2680,91 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="16"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="4"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
